--- a/RealGDP.xlsx
+++ b/RealGDP.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shinn\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AEBE4AA-C1A0-43D0-92B7-39AFD271A9BB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="26423"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960"/>
+    <workbookView xWindow="1000" yWindow="3660" windowWidth="23220" windowHeight="13280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="2" r:id="rId1"/>
     <sheet name="PCECC96" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <r>
       <t>g</t>
@@ -129,17 +128,21 @@
   <si>
     <t>Description</t>
   </si>
+  <si>
+    <t>gap</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -147,6 +150,25 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -168,8 +190,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -185,8 +213,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -244,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,7 +330,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,20 +558,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -560,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -584,22 +618,30 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G265"/>
+  <dimension ref="A1:H265"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="2"/>
       <c r="B1" s="7" t="s">
         <v>5</v>
@@ -619,8 +661,11 @@
       <c r="G1" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>17168</v>
       </c>
@@ -640,7 +685,7 @@
         <v>188.67500000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>17258</v>
       </c>
@@ -660,7 +705,7 @@
         <v>173.48500000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>17349</v>
       </c>
@@ -680,7 +725,7 @@
         <v>167.92400000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>17441</v>
       </c>
@@ -700,7 +745,7 @@
         <v>202.71199999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>17533</v>
       </c>
@@ -720,7 +765,7 @@
         <v>224.68199999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>17624</v>
       </c>
@@ -740,7 +785,7 @@
         <v>239.489</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>17715</v>
       </c>
@@ -760,7 +805,7 @@
         <v>242.053</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>17807</v>
       </c>
@@ -780,7 +825,7 @@
         <v>230.00800000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>17899</v>
       </c>
@@ -802,8 +847,12 @@
       <c r="G10">
         <v>1867</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f>B10-G10</f>
+        <v>-24.799999999999955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>17989</v>
       </c>
@@ -825,8 +874,12 @@
       <c r="G11">
         <v>1885.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" ref="H11:H74" si="0">B11-G11</f>
+        <v>-49.799999999999955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>18080</v>
       </c>
@@ -848,8 +901,12 @@
       <c r="G12">
         <v>1903.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>-47.800000000000182</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>18172</v>
       </c>
@@ -871,8 +928,12 @@
       <c r="G13">
         <v>1922.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-84.200000000000045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>18264</v>
       </c>
@@ -894,8 +955,12 @@
       <c r="G14">
         <v>1942.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>-29.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>18354</v>
       </c>
@@ -917,8 +982,12 @@
       <c r="G15">
         <v>1962.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>8.2999999999999545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>18445</v>
       </c>
@@ -940,8 +1009,12 @@
       <c r="G16">
         <v>1984.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>64.300000000000182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>18537</v>
       </c>
@@ -963,8 +1036,12 @@
       <c r="G17">
         <v>2006</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>78.400000000000091</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>18629</v>
       </c>
@@ -986,8 +1063,12 @@
       <c r="G18">
         <v>2029.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>81.599999999999909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>18719</v>
       </c>
@@ -1009,8 +1090,12 @@
       <c r="G19">
         <v>2053.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>92.299999999999727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18810</v>
       </c>
@@ -1032,8 +1117,12 @@
       <c r="G20">
         <v>2078.3000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>110.19999999999982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>18902</v>
       </c>
@@ -1055,8 +1144,12 @@
       <c r="G21">
         <v>2103.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>88.799999999999727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>18994</v>
       </c>
@@ -1078,8 +1171,12 @@
       <c r="G22">
         <v>2128.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>85.900000000000091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>19085</v>
       </c>
@@ -1101,8 +1198,12 @@
       <c r="G23">
         <v>2153.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>63.599999999999909</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>19176</v>
       </c>
@@ -1124,8 +1225,12 @@
       <c r="G24">
         <v>2177.3000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>54.299999999999727</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>19268</v>
       </c>
@@ -1147,8 +1252,12 @@
       <c r="G25">
         <v>2200.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>104.40000000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>19360</v>
       </c>
@@ -1170,8 +1279,12 @@
       <c r="G26">
         <v>2223.1999999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>125.20000000000027</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>19450</v>
       </c>
@@ -1193,8 +1306,12 @@
       <c r="G27">
         <v>2244.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>121.69999999999982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>19541</v>
       </c>
@@ -1216,8 +1333,12 @@
       <c r="G28">
         <v>2265</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>86.800000000000182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>19633</v>
       </c>
@@ -1239,8 +1360,12 @@
       <c r="G29">
         <v>2284.8000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>29.799999999999727</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>19725</v>
       </c>
@@ -1262,8 +1387,12 @@
       <c r="G30">
         <v>2303.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>-0.40000000000009095</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>19815</v>
       </c>
@@ -1285,8 +1414,12 @@
       <c r="G31">
         <v>2322</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>-15.599999999999909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>19906</v>
       </c>
@@ -1308,8 +1441,12 @@
       <c r="G32">
         <v>2339.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>-7.1999999999998181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>19998</v>
       </c>
@@ -1331,8 +1468,12 @@
       <c r="G33">
         <v>2357.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>20090</v>
       </c>
@@ -1354,8 +1495,12 @@
       <c r="G34">
         <v>2374.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>72.799999999999727</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>20180</v>
       </c>
@@ -1377,8 +1522,12 @@
       <c r="G35">
         <v>2393.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>20271</v>
       </c>
@@ -1400,8 +1549,12 @@
       <c r="G36">
         <v>2411.8000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>109.59999999999991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>20363</v>
       </c>
@@ -1423,8 +1576,12 @@
       <c r="G37">
         <v>2430.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>104.59999999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>20455</v>
       </c>
@@ -1446,8 +1603,12 @@
       <c r="G38">
         <v>2451.1999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>72.700000000000273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>20546</v>
       </c>
@@ -1469,8 +1630,12 @@
       <c r="G39">
         <v>2472</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>71.800000000000182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>20637</v>
       </c>
@@ -1492,8 +1657,12 @@
       <c r="G40">
         <v>2493.3000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>47.299999999999727</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>20729</v>
       </c>
@@ -1515,8 +1684,12 @@
       <c r="G41">
         <v>2515.1999999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>66.900000000000091</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>20821</v>
       </c>
@@ -1538,8 +1711,12 @@
       <c r="G42">
         <v>2537.3000000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>60.599999999999909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>20911</v>
       </c>
@@ -1561,8 +1738,12 @@
       <c r="G43">
         <v>2560.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>31.299999999999727</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>21002</v>
       </c>
@@ -1584,8 +1765,12 @@
       <c r="G44">
         <v>2583.9</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>32.699999999999818</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>21094</v>
       </c>
@@ -1607,8 +1792,12 @@
       <c r="G45">
         <v>2607.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>-18.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>21186</v>
       </c>
@@ -1630,8 +1819,12 @@
       <c r="G46">
         <v>2631.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>-112.59999999999991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>21276</v>
       </c>
@@ -1653,8 +1846,12 @@
       <c r="G47">
         <v>2655</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>-120.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>21367</v>
       </c>
@@ -1676,8 +1873,12 @@
       <c r="G48">
         <v>2678.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>-84.599999999999909</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>21459</v>
       </c>
@@ -1699,8 +1900,12 @@
       <c r="G49">
         <v>2702</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>-47.699999999999818</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>21551</v>
       </c>
@@ -1722,8 +1927,12 @@
       <c r="G50">
         <v>2725.2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>-17.199999999999818</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>21641</v>
       </c>
@@ -1745,8 +1954,12 @@
       <c r="G51">
         <v>2749</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>27.400000000000091</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>21732</v>
       </c>
@@ -1768,8 +1981,12 @@
       <c r="G52">
         <v>2773.2</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>-9.9999999999909051E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>21824</v>
       </c>
@@ -1791,8 +2008,12 @@
       <c r="G53">
         <v>2798</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <f t="shared" si="0"/>
+        <v>-15.199999999999818</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>21916</v>
       </c>
@@ -1814,8 +2035,12 @@
       <c r="G54">
         <v>2824.2</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <f t="shared" si="0"/>
+        <v>21.100000000000364</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>22007</v>
       </c>
@@ -1837,8 +2062,12 @@
       <c r="G55">
         <v>2851.2</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <f t="shared" si="0"/>
+        <v>-19.199999999999818</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>22098</v>
       </c>
@@ -1860,8 +2089,12 @@
       <c r="G56">
         <v>2878.7</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <f t="shared" si="0"/>
+        <v>-42.099999999999909</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>22190</v>
       </c>
@@ -1883,8 +2116,12 @@
       <c r="G57">
         <v>2906.7</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <f t="shared" si="0"/>
+        <v>-106.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>22282</v>
       </c>
@@ -1906,8 +2143,12 @@
       <c r="G58">
         <v>2934.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <f t="shared" si="0"/>
+        <v>-117.90000000000009</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>22372</v>
       </c>
@@ -1929,8 +2170,12 @@
       <c r="G59">
         <v>2962.9</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <f t="shared" si="0"/>
+        <v>-93.300000000000182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>22463</v>
       </c>
@@ -1952,8 +2197,12 @@
       <c r="G60">
         <v>2991.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <f t="shared" si="0"/>
+        <v>-75.400000000000091</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>22555</v>
       </c>
@@ -1975,8 +2224,12 @@
       <c r="G61">
         <v>3019.9</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <f t="shared" si="0"/>
+        <v>-44.599999999999909</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>22647</v>
       </c>
@@ -1998,8 +2251,12 @@
       <c r="G62">
         <v>3048.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>22737</v>
       </c>
@@ -2021,8 +2278,12 @@
       <c r="G63">
         <v>3078</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <f t="shared" si="0"/>
+        <v>-15.900000000000091</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>22828</v>
       </c>
@@ -2044,8 +2305,12 @@
       <c r="G64">
         <v>3107.7</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <f t="shared" si="0"/>
+        <v>-17.299999999999727</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>22920</v>
       </c>
@@ -2067,8 +2332,12 @@
       <c r="G65">
         <v>3137.7</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <f t="shared" si="0"/>
+        <v>-39.799999999999727</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>23012</v>
       </c>
@@ -2090,8 +2359,12 @@
       <c r="G66">
         <v>3168.4</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>23102</v>
       </c>
@@ -2113,8 +2386,12 @@
       <c r="G67">
         <v>3199.4</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <f t="shared" si="0"/>
+        <v>-21.700000000000273</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>23193</v>
       </c>
@@ -2136,8 +2413,12 @@
       <c r="G68">
         <v>3230.7</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <f t="shared" si="0"/>
+        <v>6.9000000000000909</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>23285</v>
       </c>
@@ -2159,8 +2440,12 @@
       <c r="G69">
         <v>3262.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <f t="shared" si="0"/>
+        <v>-0.3000000000001819</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>23377</v>
       </c>
@@ -2182,8 +2467,12 @@
       <c r="G70">
         <v>3294.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <f t="shared" si="0"/>
+        <v>40.900000000000091</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>23468</v>
       </c>
@@ -2205,8 +2494,12 @@
       <c r="G71">
         <v>3326.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <f t="shared" si="0"/>
+        <v>46.899999999999636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>23559</v>
       </c>
@@ -2228,8 +2521,12 @@
       <c r="G72">
         <v>3359.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <f t="shared" si="0"/>
+        <v>59.900000000000091</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>23651</v>
       </c>
@@ -2251,8 +2548,12 @@
       <c r="G73">
         <v>3393</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>23743</v>
       </c>
@@ -2274,8 +2575,12 @@
       <c r="G74">
         <v>3427.3</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>23833</v>
       </c>
@@ -2297,8 +2602,12 @@
       <c r="G75">
         <v>3462.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <f t="shared" ref="H75:H138" si="1">B75-G75</f>
+        <v>98.599999999999909</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>23924</v>
       </c>
@@ -2320,8 +2629,12 @@
       <c r="G76">
         <v>3498.1</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <f t="shared" si="1"/>
+        <v>135.09999999999991</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>24016</v>
       </c>
@@ -2343,8 +2656,12 @@
       <c r="G77">
         <v>3534.9</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <f t="shared" si="1"/>
+        <v>185.90000000000009</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>24108</v>
       </c>
@@ -2366,8 +2683,12 @@
       <c r="G78">
         <v>3572.7</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <f t="shared" si="1"/>
+        <v>239.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>24198</v>
       </c>
@@ -2389,8 +2710,12 @@
       <c r="G79">
         <v>3612.1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <f t="shared" si="1"/>
+        <v>212.80000000000018</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>24289</v>
       </c>
@@ -2412,8 +2737,12 @@
       <c r="G80">
         <v>3652.4</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <f t="shared" si="1"/>
+        <v>197.59999999999991</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>24381</v>
       </c>
@@ -2435,8 +2764,12 @@
       <c r="G81">
         <v>3693.2</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>24473</v>
       </c>
@@ -2458,8 +2791,12 @@
       <c r="G82">
         <v>3734.4</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <f t="shared" si="1"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>24563</v>
       </c>
@@ -2481,8 +2818,12 @@
       <c r="G83">
         <v>3775.4</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <f t="shared" si="1"/>
+        <v>140.79999999999973</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>24654</v>
       </c>
@@ -2504,8 +2845,12 @@
       <c r="G84">
         <v>3816.4</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <f t="shared" si="1"/>
+        <v>131.09999999999991</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>24746</v>
       </c>
@@ -2527,8 +2872,12 @@
       <c r="G85">
         <v>3857.3</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <f t="shared" si="1"/>
+        <v>120.29999999999973</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>24838</v>
       </c>
@@ -2550,8 +2899,12 @@
       <c r="G86">
         <v>3897.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <f t="shared" si="1"/>
+        <v>162.40000000000009</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>24929</v>
       </c>
@@ -2573,8 +2926,12 @@
       <c r="G87">
         <v>3936.7</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <f t="shared" si="1"/>
+        <v>191.80000000000018</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>25020</v>
       </c>
@@ -2596,8 +2953,12 @@
       <c r="G88">
         <v>3976.2</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <f t="shared" si="1"/>
+        <v>180.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>25112</v>
       </c>
@@ -2619,8 +2980,12 @@
       <c r="G89">
         <v>4015.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <f t="shared" si="1"/>
+        <v>159.09999999999991</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>25204</v>
       </c>
@@ -2642,8 +3007,12 @@
       <c r="G90">
         <v>4055.4</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <f t="shared" si="1"/>
+        <v>185.09999999999991</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>25294</v>
       </c>
@@ -2665,8 +3034,12 @@
       <c r="G91">
         <v>4095.6</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <f t="shared" si="1"/>
+        <v>157.20000000000027</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>25385</v>
       </c>
@@ -2688,8 +3061,12 @@
       <c r="G92">
         <v>4135.7</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>25477</v>
       </c>
@@ -2711,8 +3088,12 @@
       <c r="G93">
         <v>4175.7</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <f t="shared" si="1"/>
+        <v>83.900000000000546</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>25569</v>
       </c>
@@ -2734,8 +3115,12 @@
       <c r="G94">
         <v>4215.3</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <f t="shared" si="1"/>
+        <v>37.599999999999454</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>25659</v>
       </c>
@@ -2757,8 +3142,12 @@
       <c r="G95">
         <v>4254.2</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>25750</v>
       </c>
@@ -2780,8 +3169,12 @@
       <c r="G96">
         <v>4292.7</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <f t="shared" si="1"/>
+        <v>5.9000000000005457</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>25842</v>
       </c>
@@ -2803,8 +3196,12 @@
       <c r="G97">
         <v>4330.7</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <f t="shared" si="1"/>
+        <v>-77.699999999999818</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>25934</v>
       </c>
@@ -2826,8 +3223,12 @@
       <c r="G98">
         <v>4368</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <f t="shared" si="1"/>
+        <v>2.3000000000001819</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>26024</v>
       </c>
@@ -2849,8 +3250,12 @@
       <c r="G99">
         <v>4404.8</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <f t="shared" si="1"/>
+        <v>-9.6999999999998181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>26115</v>
       </c>
@@ -2872,8 +3277,12 @@
       <c r="G100">
         <v>4441.6000000000004</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <f t="shared" si="1"/>
+        <v>-11.400000000000546</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>26207</v>
       </c>
@@ -2895,8 +3304,12 @@
       <c r="G101">
         <v>4478.6000000000004</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <f t="shared" si="1"/>
+        <v>-36.100000000000364</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>26299</v>
       </c>
@@ -2918,8 +3331,12 @@
       <c r="G102">
         <v>4516.3999999999996</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>26390</v>
       </c>
@@ -2941,8 +3358,12 @@
       <c r="G103">
         <v>4554.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <f t="shared" si="1"/>
+        <v>74.600000000000364</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>26481</v>
       </c>
@@ -2964,8 +3385,12 @@
       <c r="G104">
         <v>4593.3999999999996</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <f t="shared" si="1"/>
+        <v>80.100000000000364</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>26573</v>
       </c>
@@ -2987,8 +3412,12 @@
       <c r="G105">
         <v>4633.2</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <f t="shared" si="1"/>
+        <v>117.30000000000018</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>26665</v>
       </c>
@@ -3010,8 +3439,12 @@
       <c r="G106">
         <v>4674.3</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <f t="shared" si="1"/>
+        <v>197.69999999999982</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>26755</v>
       </c>
@@ -3033,8 +3466,12 @@
       <c r="G107">
         <v>4717.1000000000004</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <f t="shared" si="1"/>
+        <v>211.29999999999927</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>26846</v>
       </c>
@@ -3056,8 +3493,12 @@
       <c r="G108">
         <v>4761</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <f t="shared" si="1"/>
+        <v>141.10000000000036</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>26938</v>
       </c>
@@ -3079,8 +3520,12 @@
       <c r="G109">
         <v>4805.7</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <f t="shared" si="1"/>
+        <v>143.10000000000036</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>27030</v>
       </c>
@@ -3102,8 +3547,12 @@
       <c r="G110">
         <v>4851.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <f t="shared" si="1"/>
+        <v>53.899999999999636</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>27120</v>
       </c>
@@ -3125,8 +3574,12 @@
       <c r="G111">
         <v>4898.3</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <f t="shared" si="1"/>
+        <v>19.699999999999818</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>27211</v>
       </c>
@@ -3148,8 +3601,12 @@
       <c r="G112">
         <v>4945.3999999999996</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <f t="shared" si="1"/>
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>27303</v>
       </c>
@@ -3171,8 +3628,12 @@
       <c r="G113">
         <v>4992.2</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <f t="shared" si="1"/>
+        <v>-142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>27395</v>
       </c>
@@ -3194,8 +3655,12 @@
       <c r="G114">
         <v>5037.8</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <f t="shared" si="1"/>
+        <v>-246.60000000000036</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>27485</v>
       </c>
@@ -3217,8 +3682,12 @@
       <c r="G115">
         <v>5081.7</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <f t="shared" si="1"/>
+        <v>-253.89999999999964</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>27576</v>
       </c>
@@ -3240,8 +3709,12 @@
       <c r="G116">
         <v>5124.7</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <f t="shared" si="1"/>
+        <v>-215.59999999999945</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>27668</v>
       </c>
@@ -3263,8 +3736,12 @@
       <c r="G117">
         <v>5167.2</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <f t="shared" si="1"/>
+        <v>-193.89999999999964</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>27760</v>
       </c>
@@ -3286,8 +3763,12 @@
       <c r="G118">
         <v>5208.6000000000004</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <f t="shared" si="1"/>
+        <v>-122.30000000000018</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>27851</v>
       </c>
@@ -3309,8 +3790,12 @@
       <c r="G119">
         <v>5249.9</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <f t="shared" si="1"/>
+        <v>-125.29999999999927</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>27942</v>
       </c>
@@ -3332,8 +3817,12 @@
       <c r="G120">
         <v>5291.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <f t="shared" si="1"/>
+        <v>-141.80000000000018</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>28034</v>
       </c>
@@ -3355,8 +3844,12 @@
       <c r="G121">
         <v>5333.7</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <f t="shared" si="1"/>
+        <v>-146.59999999999945</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>28126</v>
       </c>
@@ -3378,8 +3871,12 @@
       <c r="G122">
         <v>5377.8</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <f t="shared" si="1"/>
+        <v>-130.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>28216</v>
       </c>
@@ -3401,8 +3898,12 @@
       <c r="G123">
         <v>5422.7</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <f t="shared" si="1"/>
+        <v>-71.099999999999454</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>28307</v>
       </c>
@@ -3424,8 +3925,12 @@
       <c r="G124">
         <v>5468.8</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <f t="shared" si="1"/>
+        <v>-21.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>28399</v>
       </c>
@@ -3447,8 +3952,12 @@
       <c r="G125">
         <v>5516</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125">
+        <f t="shared" si="1"/>
+        <v>-69.899999999999636</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>28491</v>
       </c>
@@ -3470,8 +3979,12 @@
       <c r="G126">
         <v>5564.6</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126">
+        <f t="shared" si="1"/>
+        <v>-99.900000000000546</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>28581</v>
       </c>
@@ -3493,8 +4006,12 @@
       <c r="G127">
         <v>5616.8</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <f t="shared" si="1"/>
+        <v>62.899999999999636</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>28672</v>
       </c>
@@ -3516,8 +4033,12 @@
       <c r="G128">
         <v>5669.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <f t="shared" si="1"/>
+        <v>65.899999999999636</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>28764</v>
       </c>
@@ -3539,8 +4060,12 @@
       <c r="G129">
         <v>5722.1</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <f t="shared" si="1"/>
+        <v>89.199999999999818</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>28856</v>
       </c>
@@ -3562,8 +4087,12 @@
       <c r="G130">
         <v>5774.1</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <f t="shared" si="1"/>
+        <v>46.899999999999636</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>28946</v>
       </c>
@@ -3585,8 +4114,12 @@
       <c r="G131">
         <v>5823.7</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <f t="shared" si="1"/>
+        <v>2.6999999999998181</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>29037</v>
       </c>
@@ -3608,8 +4141,12 @@
       <c r="G132">
         <v>5870.9</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132">
+        <f t="shared" si="1"/>
+        <v>-2.5999999999994543</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>29129</v>
       </c>
@@ -3631,8 +4168,12 @@
       <c r="G133">
         <v>5915.2</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133">
+        <f t="shared" si="1"/>
+        <v>-30.699999999999818</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>29221</v>
       </c>
@@ -3654,8 +4195,12 @@
       <c r="G134">
         <v>5954</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134">
+        <f t="shared" si="1"/>
+        <v>-50.600000000000364</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>29312</v>
       </c>
@@ -3677,8 +4222,12 @@
       <c r="G135">
         <v>5986.7</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135">
+        <f t="shared" si="1"/>
+        <v>-204.30000000000018</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>29403</v>
       </c>
@@ -3700,8 +4249,12 @@
       <c r="G136">
         <v>6017.5</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <f t="shared" si="1"/>
+        <v>-245.80000000000018</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>29495</v>
       </c>
@@ -3723,8 +4276,12 @@
       <c r="G137">
         <v>6047.7</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <f t="shared" si="1"/>
+        <v>-169.30000000000018</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>29587</v>
       </c>
@@ -3746,8 +4303,12 @@
       <c r="G138">
         <v>6079.4</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138">
+        <f t="shared" si="1"/>
+        <v>-78.799999999999272</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>29677</v>
       </c>
@@ -3769,8 +4330,12 @@
       <c r="G139">
         <v>6115.2</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139">
+        <f t="shared" ref="H139:H202" si="2">B139-G139</f>
+        <v>-162.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>29768</v>
       </c>
@@ -3792,8 +4357,12 @@
       <c r="G140">
         <v>6153.1</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140">
+        <f t="shared" si="2"/>
+        <v>-128.10000000000036</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>29860</v>
       </c>
@@ -3815,8 +4384,12 @@
       <c r="G141">
         <v>6193.3</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141">
+        <f t="shared" si="2"/>
+        <v>-243.30000000000018</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>29952</v>
       </c>
@@ -3838,8 +4411,12 @@
       <c r="G142">
         <v>6238.9</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142">
+        <f t="shared" si="2"/>
+        <v>-386.59999999999945</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>30042</v>
       </c>
@@ -3861,8 +4438,12 @@
       <c r="G143">
         <v>6285.6</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143">
+        <f t="shared" si="2"/>
+        <v>-401.60000000000036</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>30133</v>
       </c>
@@ -3884,8 +4465,12 @@
       <c r="G144">
         <v>6333.4</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144">
+        <f t="shared" si="2"/>
+        <v>-472</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>30225</v>
       </c>
@@ -3907,8 +4492,12 @@
       <c r="G145">
         <v>6381.6</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145">
+        <f t="shared" si="2"/>
+        <v>-515.60000000000036</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>30317</v>
       </c>
@@ -3930,8 +4519,12 @@
       <c r="G146">
         <v>6427.4</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <f t="shared" si="2"/>
+        <v>-488.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>30407</v>
       </c>
@@ -3953,8 +4546,12 @@
       <c r="G147">
         <v>6472.6</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147">
+        <f t="shared" si="2"/>
+        <v>-400.20000000000073</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>30498</v>
       </c>
@@ -3976,8 +4573,12 @@
       <c r="G148">
         <v>6518.3</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148">
+        <f t="shared" si="2"/>
+        <v>-326.10000000000036</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>30590</v>
       </c>
@@ -3999,8 +4600,12 @@
       <c r="G149">
         <v>6564.9</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149">
+        <f t="shared" si="2"/>
+        <v>-244.69999999999982</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>30682</v>
       </c>
@@ -4022,8 +4627,12 @@
       <c r="G150">
         <v>6613.5</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150">
+        <f t="shared" si="2"/>
+        <v>-170.69999999999982</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>30773</v>
       </c>
@@ -4045,8 +4654,12 @@
       <c r="G151">
         <v>6664.6</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151">
+        <f t="shared" si="2"/>
+        <v>-110.60000000000036</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>30864</v>
       </c>
@@ -4068,8 +4681,12 @@
       <c r="G152">
         <v>6717.3</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152">
+        <f t="shared" si="2"/>
+        <v>-99.600000000000364</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>30956</v>
       </c>
@@ -4091,8 +4708,12 @@
       <c r="G153">
         <v>6771.5</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153">
+        <f t="shared" si="2"/>
+        <v>-99.899999999999636</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>31048</v>
       </c>
@@ -4114,8 +4735,12 @@
       <c r="G154">
         <v>6827.6</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154">
+        <f t="shared" si="2"/>
+        <v>-93.100000000000364</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>31138</v>
       </c>
@@ -4137,8 +4762,12 @@
       <c r="G155">
         <v>6884.8</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155">
+        <f t="shared" si="2"/>
+        <v>-93.300000000000182</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>31229</v>
       </c>
@@ -4160,8 +4789,12 @@
       <c r="G156">
         <v>6942.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156">
+        <f t="shared" si="2"/>
+        <v>-44.899999999999636</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>31321</v>
       </c>
@@ -4183,8 +4816,12 @@
       <c r="G157">
         <v>7000.4</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157">
+        <f t="shared" si="2"/>
+        <v>-50.399999999999636</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>31413</v>
       </c>
@@ -4206,8 +4843,12 @@
       <c r="G158">
         <v>7057.2</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158">
+        <f t="shared" si="2"/>
+        <v>-40.399999999999636</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>31503</v>
       </c>
@@ -4229,8 +4870,12 @@
       <c r="G159">
         <v>7113.4</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159">
+        <f t="shared" si="2"/>
+        <v>-68.399999999999636</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>31594</v>
       </c>
@@ -4252,8 +4897,12 @@
       <c r="G160">
         <v>7169.4</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160">
+        <f t="shared" si="2"/>
+        <v>-56.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>31686</v>
       </c>
@@ -4275,8 +4924,12 @@
       <c r="G161">
         <v>7225.1</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161">
+        <f t="shared" si="2"/>
+        <v>-77.800000000000182</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>31778</v>
       </c>
@@ -4298,8 +4951,12 @@
       <c r="G162">
         <v>7280.7</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162">
+        <f t="shared" si="2"/>
+        <v>-93.800000000000182</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>31868</v>
       </c>
@@ -4321,8 +4978,12 @@
       <c r="G163">
         <v>7336.2</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163">
+        <f t="shared" si="2"/>
+        <v>-72.899999999999636</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>31959</v>
       </c>
@@ -4344,8 +5005,12 @@
       <c r="G164">
         <v>7391.7</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164">
+        <f t="shared" si="2"/>
+        <v>-65.399999999999636</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>32051</v>
       </c>
@@ -4367,8 +5032,12 @@
       <c r="G165">
         <v>7447.5</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165">
+        <f t="shared" si="2"/>
+        <v>4.1999999999998181</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>32143</v>
       </c>
@@ -4390,8 +5059,12 @@
       <c r="G166">
         <v>7503.7</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166">
+        <f t="shared" si="2"/>
+        <v>-13.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>32234</v>
       </c>
@@ -4413,8 +5086,12 @@
       <c r="G167">
         <v>7560</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167">
+        <f t="shared" si="2"/>
+        <v>26.399999999999636</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>32325</v>
       </c>
@@ -4436,8 +5113,12 @@
       <c r="G168">
         <v>7616.7</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168">
+        <f t="shared" si="2"/>
+        <v>8.9000000000005457</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>32417</v>
       </c>
@@ -4459,8 +5140,12 @@
       <c r="G169">
         <v>7673.6</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169">
+        <f t="shared" si="2"/>
+        <v>53.799999999999272</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>32509</v>
       </c>
@@ -4482,8 +5167,12 @@
       <c r="G170">
         <v>7730.9</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>32599</v>
       </c>
@@ -4505,8 +5194,12 @@
       <c r="G171">
         <v>7789.1</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171">
+        <f t="shared" si="2"/>
+        <v>69.199999999999818</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>32690</v>
       </c>
@@ -4528,8 +5221,12 @@
       <c r="G172">
         <v>7847.5</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172">
+        <f t="shared" si="2"/>
+        <v>73.100000000000364</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>32782</v>
       </c>
@@ -4551,8 +5248,12 @@
       <c r="G173">
         <v>7906</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173">
+        <f t="shared" si="2"/>
+        <v>31.899999999999636</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>32874</v>
       </c>
@@ -4574,8 +5275,12 @@
       <c r="G174">
         <v>7964.7</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174">
+        <f t="shared" si="2"/>
+        <v>56.100000000000364</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>32964</v>
       </c>
@@ -4597,8 +5302,12 @@
       <c r="G175">
         <v>8023.2</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175">
+        <f t="shared" si="2"/>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>33055</v>
       </c>
@@ -4620,8 +5329,12 @@
       <c r="G176">
         <v>8081.3</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176">
+        <f t="shared" si="2"/>
+        <v>-28.699999999999818</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>33147</v>
       </c>
@@ -4643,8 +5356,12 @@
       <c r="G177">
         <v>8138.9</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177">
+        <f t="shared" si="2"/>
+        <v>-156.89999999999964</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>33239</v>
       </c>
@@ -4666,8 +5383,12 @@
       <c r="G178">
         <v>8195.2999999999993</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178">
+        <f t="shared" si="2"/>
+        <v>-251.89999999999964</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>33329</v>
       </c>
@@ -4689,8 +5410,12 @@
       <c r="G179">
         <v>8250.4</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179">
+        <f t="shared" si="2"/>
+        <v>-253.39999999999964</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>33420</v>
       </c>
@@ -4712,8 +5437,12 @@
       <c r="G180">
         <v>8304.9</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180">
+        <f t="shared" si="2"/>
+        <v>-274.19999999999982</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>33512</v>
       </c>
@@ -4735,8 +5464,12 @@
       <c r="G181">
         <v>8359.1</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181">
+        <f t="shared" si="2"/>
+        <v>-296.90000000000055</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>33604</v>
       </c>
@@ -4758,8 +5491,12 @@
       <c r="G182">
         <v>8413.2000000000007</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182">
+        <f t="shared" si="2"/>
+        <v>-262.50000000000091</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>33695</v>
       </c>
@@ -4781,8 +5518,12 @@
       <c r="G183">
         <v>8467.4</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183">
+        <f t="shared" si="2"/>
+        <v>-230.10000000000036</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>33786</v>
       </c>
@@ -4804,8 +5545,12 @@
       <c r="G184">
         <v>8522</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184">
+        <f t="shared" si="2"/>
+        <v>-199.70000000000073</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>33878</v>
       </c>
@@ -4827,8 +5572,12 @@
       <c r="G185">
         <v>8577.4</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185">
+        <f t="shared" si="2"/>
+        <v>-167.60000000000036</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>33970</v>
       </c>
@@ -4850,8 +5599,12 @@
       <c r="G186">
         <v>8634.5</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186">
+        <f t="shared" si="2"/>
+        <v>-209.20000000000073</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>34060</v>
       </c>
@@ -4873,8 +5626,12 @@
       <c r="G187">
         <v>8692.7999999999993</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187">
+        <f t="shared" si="2"/>
+        <v>-213.59999999999854</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>34151</v>
       </c>
@@ -4896,8 +5653,12 @@
       <c r="G188">
         <v>8752.4</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188">
+        <f t="shared" si="2"/>
+        <v>-228.60000000000036</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>34243</v>
       </c>
@@ -4919,8 +5680,12 @@
       <c r="G189">
         <v>8813.2000000000007</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189">
+        <f t="shared" si="2"/>
+        <v>-176.80000000000109</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>34335</v>
       </c>
@@ -4942,8 +5707,12 @@
       <c r="G190">
         <v>8875.2999999999993</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190">
+        <f t="shared" si="2"/>
+        <v>-154.79999999999927</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>34425</v>
       </c>
@@ -4965,8 +5734,12 @@
       <c r="G191">
         <v>8938.6</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191">
+        <f t="shared" si="2"/>
+        <v>-98.800000000001091</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>34516</v>
       </c>
@@ -4988,8 +5761,12 @@
       <c r="G192">
         <v>9003</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192">
+        <f t="shared" si="2"/>
+        <v>-106.29999999999927</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>34608</v>
       </c>
@@ -5011,8 +5788,12 @@
       <c r="G193">
         <v>9068.6</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193">
+        <f t="shared" si="2"/>
+        <v>-73.100000000000364</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>34700</v>
       </c>
@@ -5034,8 +5815,12 @@
       <c r="G194">
         <v>9135.2000000000007</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194">
+        <f t="shared" si="2"/>
+        <v>-117.60000000000036</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>34790</v>
       </c>
@@ -5057,8 +5842,12 @@
       <c r="G195">
         <v>9203.2000000000007</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195">
+        <f t="shared" si="2"/>
+        <v>-166.20000000000073</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>34881</v>
       </c>
@@ -5080,8 +5869,12 @@
       <c r="G196">
         <v>9272.2999999999993</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196">
+        <f t="shared" si="2"/>
+        <v>-159.39999999999964</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>34973</v>
       </c>
@@ -5103,8 +5896,12 @@
       <c r="G197">
         <v>9342.7000000000007</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197">
+        <f t="shared" si="2"/>
+        <v>-166.30000000000109</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>35065</v>
       </c>
@@ -5126,8 +5923,12 @@
       <c r="G198">
         <v>9414.5</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198">
+        <f t="shared" si="2"/>
+        <v>-175.20000000000073</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>35156</v>
       </c>
@@ -5149,8 +5950,12 @@
       <c r="G199">
         <v>9487.1</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199">
+        <f t="shared" si="2"/>
+        <v>-88.100000000000364</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="1">
         <v>35247</v>
       </c>
@@ -5172,8 +5977,12 @@
       <c r="G200">
         <v>9561</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200">
+        <f t="shared" si="2"/>
+        <v>-80.200000000000728</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="1">
         <v>35339</v>
       </c>
@@ -5195,8 +6004,12 @@
       <c r="G201">
         <v>9636.2999999999993</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201">
+        <f t="shared" si="2"/>
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="1">
         <v>35431</v>
       </c>
@@ -5218,8 +6031,12 @@
       <c r="G202">
         <v>9713.1</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202">
+        <f t="shared" si="2"/>
+        <v>-55.100000000000364</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="1">
         <v>35521</v>
       </c>
@@ -5241,8 +6058,12 @@
       <c r="G203">
         <v>9791.6</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203">
+        <f t="shared" ref="H203:H265" si="3">B203-G203</f>
+        <v>9.6000000000003638</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="1">
         <v>35612</v>
       </c>
@@ -5264,8 +6085,12 @@
       <c r="G204">
         <v>9871.7000000000007</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204">
+        <f t="shared" si="3"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="1">
         <v>35704</v>
       </c>
@@ -5287,8 +6112,12 @@
       <c r="G205">
         <v>9953.6</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205">
+        <f t="shared" si="3"/>
+        <v>46.699999999998909</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="1">
         <v>35796</v>
       </c>
@@ -5310,8 +6139,12 @@
       <c r="G206">
         <v>10037.5</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206">
+        <f t="shared" si="3"/>
+        <v>57.299999999999272</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="1">
         <v>35886</v>
       </c>
@@ -5333,8 +6166,12 @@
       <c r="G207">
         <v>10123.200000000001</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207">
+        <f t="shared" si="3"/>
+        <v>62.399999999999636</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="1">
         <v>35977</v>
       </c>
@@ -5356,8 +6193,12 @@
       <c r="G208">
         <v>10210.5</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208">
+        <f t="shared" si="3"/>
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="1">
         <v>36069</v>
       </c>
@@ -5379,8 +6220,12 @@
       <c r="G209">
         <v>10299.200000000001</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209">
+        <f t="shared" si="3"/>
+        <v>199.39999999999964</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="1">
         <v>36161</v>
       </c>
@@ -5402,8 +6247,12 @@
       <c r="G210">
         <v>10389.1</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210">
+        <f t="shared" si="3"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="1">
         <v>36251</v>
       </c>
@@ -5425,8 +6274,12 @@
       <c r="G211">
         <v>10480.200000000001</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211">
+        <f t="shared" si="3"/>
+        <v>194.69999999999891</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="1">
         <v>36342</v>
       </c>
@@ -5448,8 +6301,12 @@
       <c r="G212">
         <v>10572.6</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212">
+        <f t="shared" si="3"/>
+        <v>238.10000000000036</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="1">
         <v>36434</v>
       </c>
@@ -5471,8 +6328,12 @@
       <c r="G213">
         <v>10666.4</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213">
+        <f t="shared" si="3"/>
+        <v>338.39999999999964</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="1">
         <v>36526</v>
       </c>
@@ -5494,8 +6355,12 @@
       <c r="G214">
         <v>10761.6</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214">
+        <f t="shared" si="3"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="1">
         <v>36617</v>
       </c>
@@ -5517,8 +6382,12 @@
       <c r="G215">
         <v>10859.8</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215">
+        <f t="shared" si="3"/>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="1">
         <v>36708</v>
       </c>
@@ -5540,8 +6409,12 @@
       <c r="G216">
         <v>10958.9</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216">
+        <f t="shared" si="3"/>
+        <v>299.39999999999964</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="1">
         <v>36800</v>
       </c>
@@ -5563,8 +6436,12 @@
       <c r="G217">
         <v>11058.5</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217">
+        <f t="shared" si="3"/>
+        <v>266.5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="1">
         <v>36892</v>
       </c>
@@ -5586,8 +6463,12 @@
       <c r="G218">
         <v>11158.1</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218">
+        <f t="shared" si="3"/>
+        <v>129.69999999999891</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="1">
         <v>36982</v>
       </c>
@@ -5609,8 +6490,12 @@
       <c r="G219">
         <v>11256.6</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H219">
+        <f t="shared" si="3"/>
+        <v>105.10000000000036</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="1">
         <v>37073</v>
       </c>
@@ -5632,8 +6517,12 @@
       <c r="G220">
         <v>11353.9</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H220">
+        <f t="shared" si="3"/>
+        <v>-23.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="1">
         <v>37165</v>
       </c>
@@ -5655,8 +6544,12 @@
       <c r="G221">
         <v>11449.4</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H221">
+        <f t="shared" si="3"/>
+        <v>-79.399999999999636</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="1">
         <v>37257</v>
       </c>
@@ -5678,8 +6571,12 @@
       <c r="G222">
         <v>11541.1</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H222">
+        <f t="shared" si="3"/>
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="1">
         <v>37347</v>
       </c>
@@ -5701,8 +6598,12 @@
       <c r="G223">
         <v>11631.5</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H223">
+        <f t="shared" si="3"/>
+        <v>-103.39999999999964</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="1">
         <v>37438</v>
       </c>
@@ -5724,8 +6625,12 @@
       <c r="G224">
         <v>11719.6</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H224">
+        <f t="shared" si="3"/>
+        <v>-133</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="1">
         <v>37530</v>
       </c>
@@ -5747,8 +6652,12 @@
       <c r="G225">
         <v>11805.1</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H225">
+        <f t="shared" si="3"/>
+        <v>-214.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="1">
         <v>37622</v>
       </c>
@@ -5770,8 +6679,12 @@
       <c r="G226">
         <v>11888.3</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H226">
+        <f t="shared" si="3"/>
+        <v>-249.39999999999964</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="1">
         <v>37712</v>
       </c>
@@ -5793,8 +6706,12 @@
       <c r="G227">
         <v>11966.9</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H227">
+        <f t="shared" si="3"/>
+        <v>-229.39999999999964</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="1">
         <v>37803</v>
       </c>
@@ -5816,8 +6733,12 @@
       <c r="G228">
         <v>12042.9</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H228">
+        <f t="shared" si="3"/>
+        <v>-112.19999999999891</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="1">
         <v>37895</v>
       </c>
@@ -5839,8 +6760,12 @@
       <c r="G229">
         <v>12116.4</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H229">
+        <f t="shared" si="3"/>
+        <v>-77.799999999999272</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="1">
         <v>37987</v>
       </c>
@@ -5862,8 +6787,12 @@
       <c r="G230">
         <v>12187.1</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H230">
+        <f t="shared" si="3"/>
+        <v>-69.200000000000728</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="1">
         <v>38078</v>
       </c>
@@ -5885,8 +6814,12 @@
       <c r="G231">
         <v>12256.1</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231">
+        <f t="shared" si="3"/>
+        <v>-60.200000000000728</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="1">
         <v>38169</v>
       </c>
@@ -5908,8 +6841,12 @@
       <c r="G232">
         <v>12324.3</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H232">
+        <f t="shared" si="3"/>
+        <v>-37.599999999998545</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="1">
         <v>38261</v>
       </c>
@@ -5931,8 +6868,12 @@
       <c r="G233">
         <v>12392.4</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H233">
+        <f t="shared" si="3"/>
+        <v>-5.1999999999989086</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="1">
         <v>38353</v>
       </c>
@@ -5954,8 +6895,12 @@
       <c r="G234">
         <v>12462.5</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H234">
+        <f t="shared" si="3"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="1">
         <v>38443</v>
       </c>
@@ -5977,8 +6922,12 @@
       <c r="G235">
         <v>12533.1</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H235">
+        <f t="shared" si="3"/>
+        <v>37.600000000000364</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="1">
         <v>38534</v>
       </c>
@@ -6000,8 +6949,12 @@
       <c r="G236">
         <v>12604.4</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H236">
+        <f t="shared" si="3"/>
+        <v>66.100000000000364</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="1">
         <v>38626</v>
       </c>
@@ -6023,8 +6976,12 @@
       <c r="G237">
         <v>12676.7</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H237">
+        <f t="shared" si="3"/>
+        <v>58.899999999999636</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="1">
         <v>38718</v>
       </c>
@@ -6046,8 +7003,12 @@
       <c r="G238">
         <v>12750.3</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H238">
+        <f t="shared" si="3"/>
+        <v>146.10000000000036</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="1">
         <v>38808</v>
       </c>
@@ -6069,8 +7030,12 @@
       <c r="G239">
         <v>12825.8</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H239">
+        <f t="shared" si="3"/>
+        <v>122.90000000000146</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="1">
         <v>38899</v>
       </c>
@@ -6092,8 +7057,12 @@
       <c r="G240">
         <v>12902.4</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H240">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="1">
         <v>38991</v>
       </c>
@@ -6115,8 +7084,12 @@
       <c r="G241">
         <v>12979.9</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H241">
+        <f t="shared" si="3"/>
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242" s="1">
         <v>39083</v>
       </c>
@@ -6138,8 +7111,12 @@
       <c r="G242">
         <v>13058.4</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H242">
+        <f t="shared" si="3"/>
+        <v>-2.2999999999992724</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243" s="1">
         <v>39173</v>
       </c>
@@ -6161,8 +7138,12 @@
       <c r="G243">
         <v>13138.1</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H243">
+        <f t="shared" si="3"/>
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244" s="1">
         <v>39264</v>
       </c>
@@ -6184,8 +7165,12 @@
       <c r="G244">
         <v>13217.7</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H244">
+        <f t="shared" si="3"/>
+        <v>52.099999999998545</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245" s="1">
         <v>39356</v>
       </c>
@@ -6207,8 +7192,12 @@
       <c r="G245">
         <v>13296.5</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H245">
+        <f t="shared" si="3"/>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246" s="1">
         <v>39448</v>
       </c>
@@ -6230,8 +7219,12 @@
       <c r="G246">
         <v>13373.3</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H246">
+        <f t="shared" si="3"/>
+        <v>-106.5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247" s="1">
         <v>39539</v>
       </c>
@@ -6253,8 +7246,12 @@
       <c r="G247">
         <v>13449.5</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H247">
+        <f t="shared" si="3"/>
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248" s="1">
         <v>39630</v>
       </c>
@@ -6276,8 +7273,12 @@
       <c r="G248">
         <v>13523.3</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H248">
+        <f t="shared" si="3"/>
+        <v>-336.39999999999964</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249" s="1">
         <v>39722</v>
       </c>
@@ -6299,8 +7300,12 @@
       <c r="G249">
         <v>13594</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H249">
+        <f t="shared" si="3"/>
+        <v>-710.5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250" s="1">
         <v>39814</v>
       </c>
@@ -6322,8 +7327,12 @@
       <c r="G250">
         <v>13660.1</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H250">
+        <f t="shared" si="3"/>
+        <v>-949.10000000000036</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251" s="1">
         <v>39904</v>
       </c>
@@ -6345,8 +7354,12 @@
       <c r="G251">
         <v>13719.2</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H251">
+        <f t="shared" si="3"/>
+        <v>-1018.2000000000007</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252" s="1">
         <v>39995</v>
       </c>
@@ -6368,8 +7381,12 @@
       <c r="G252">
         <v>13774.8</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H252">
+        <f t="shared" si="3"/>
+        <v>-1028.0999999999985</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253" s="1">
         <v>40087</v>
       </c>
@@ -6391,8 +7408,12 @@
       <c r="G253">
         <v>13827.5</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H253">
+        <f t="shared" si="3"/>
+        <v>-954.39999999999964</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254" s="1">
         <v>40179</v>
       </c>
@@ -6414,8 +7435,12 @@
       <c r="G254">
         <v>13877</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H254">
+        <f t="shared" si="3"/>
+        <v>-929.39999999999964</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" s="1">
         <v>40269</v>
       </c>
@@ -6437,8 +7462,12 @@
       <c r="G255">
         <v>13925.7</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H255">
+        <f t="shared" si="3"/>
+        <v>-906.10000000000036</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256" s="1">
         <v>40360</v>
       </c>
@@ -6460,8 +7489,12 @@
       <c r="G256">
         <v>13974.4</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H256">
+        <f t="shared" si="3"/>
+        <v>-870.89999999999964</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257" s="1">
         <v>40452</v>
       </c>
@@ -6483,8 +7516,12 @@
       <c r="G257">
         <v>14024.2</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H257">
+        <f t="shared" si="3"/>
+        <v>-843</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258" s="1">
         <v>40544</v>
       </c>
@@ -6506,8 +7543,12 @@
       <c r="G258">
         <v>14078.9</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H258">
+        <f t="shared" si="3"/>
+        <v>-895.10000000000036</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259" s="1">
         <v>40634</v>
       </c>
@@ -6529,8 +7570,12 @@
       <c r="G259">
         <v>14136.3</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H259">
+        <f t="shared" si="3"/>
+        <v>-871.59999999999854</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260" s="1">
         <v>40725</v>
       </c>
@@ -6552,8 +7597,12 @@
       <c r="G260">
         <v>14195.4</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H260">
+        <f t="shared" si="3"/>
+        <v>-888.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261" s="1">
         <v>40817</v>
       </c>
@@ -6575,8 +7624,12 @@
       <c r="G261">
         <v>14255.9</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H261">
+        <f t="shared" si="3"/>
+        <v>-814.89999999999964</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262" s="1">
         <v>40909</v>
       </c>
@@ -6598,8 +7651,12 @@
       <c r="G262">
         <v>14317.4</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H262">
+        <f t="shared" si="3"/>
+        <v>-811</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263" s="1">
         <v>41000</v>
       </c>
@@ -6621,8 +7678,12 @@
       <c r="G263">
         <v>14379.3</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H263">
+        <f t="shared" si="3"/>
+        <v>-830.79999999999927</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264" s="1">
         <v>41091</v>
       </c>
@@ -6644,8 +7705,12 @@
       <c r="G264">
         <v>14441.9</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H264">
+        <f t="shared" si="3"/>
+        <v>-789.39999999999964</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265" s="1">
         <v>41183</v>
       </c>
@@ -6666,11 +7731,21 @@
       </c>
       <c r="G265">
         <v>14505.4</v>
+      </c>
+      <c r="H265">
+        <f t="shared" si="3"/>
+        <v>-848.60000000000036</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>